--- a/public/temp/abandon.xlsx
+++ b/public/temp/abandon.xlsx
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/public/temp/abandon.xlsx
+++ b/public/temp/abandon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>"662c99ea108e64a0b90ba757"</t>
+  </si>
+  <si>
+    <t>"662c9aa3108e64a0b90ba78a"</t>
+  </si>
+  <si>
+    <t>"662e8752a6e497a9b4ba78ea"</t>
+  </si>
+  <si>
+    <t>"662e7dfda6e497a9b4ba75cb"</t>
+  </si>
+  <si>
+    <t>"66372295b425072763390c59"</t>
   </si>
 </sst>
 </file>
@@ -423,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -481,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -492,25 +504,25 @@
         <v>9</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -533,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -559,10 +571,114 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/temp/abandon.xlsx
+++ b/public/temp/abandon.xlsx
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -504,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -519,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>2</v>

--- a/public/temp/abandon.xlsx
+++ b/public/temp/abandon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>"66372295b425072763390c59"</t>
+  </si>
+  <si>
+    <t>"66387de9038e410f6c5fe525"</t>
+  </si>
+  <si>
+    <t>"663c5b6487588d973c2f7c73"</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -484,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -493,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -504,25 +510,25 @@
         <v>9</v>
       </c>
       <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
       <c r="G3">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -536,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -545,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -571,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -597,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -623,10 +629,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,6 +685,58 @@
       </c>
       <c r="H9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
